--- a/data/producto/tomate/production/exec13_6.27.4 (1).xlsx
+++ b/data/producto/tomate/production/exec13_6.27.4 (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD/_GitHub/journey-of-food/data/producto/tomate/production/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21315" windowHeight="9285"/>
+    <workbookView xWindow="700" yWindow="440" windowWidth="21320" windowHeight="9280"/>
   </bookViews>
   <sheets>
     <sheet name="13.6.27.4" sheetId="1" r:id="rId1"/>
@@ -43,11 +48,16 @@
     <definedName name="_PP7" hidden="1">'[3]19.14-15'!#REF!</definedName>
     <definedName name="_PP8" hidden="1">'[3]19.14-15'!#REF!</definedName>
     <definedName name="_PP9" hidden="1">'[3]19.14-15'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'13.6.27.4'!$A$1:$H$89</definedName>
     <definedName name="balan.xls" hidden="1">'[4]7.24'!$D$6:$D$27</definedName>
     <definedName name="kk" hidden="1">'[2]19.14-15'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'13.6.27.4'!$A$1:$H$89</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -279,13 +289,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0__;\–#,##0__;0__;@__"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(0.0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -392,11 +402,6 @@
       <color indexed="60"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -784,10 +789,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -887,28 +892,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -920,15 +919,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -936,15 +926,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1009,30 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,11 +1088,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CARNE1"/>
@@ -1484,100 +1494,20 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="19.1-2"/>
-      <sheetName val="19.3"/>
-      <sheetName val="19.4"/>
-      <sheetName val="19.5-6-7"/>
-      <sheetName val="19.8"/>
-      <sheetName val="19.9"/>
-      <sheetName val="19.10"/>
-      <sheetName val="19.11-12"/>
-      <sheetName val="19.13"/>
       <sheetName val="19.14-15"/>
-      <sheetName val="19.16"/>
-      <sheetName val="19.17"/>
-      <sheetName val="19.18-19"/>
-      <sheetName val="19.20"/>
-      <sheetName val="19.21"/>
-      <sheetName val="19.22"/>
-      <sheetName val="19.23"/>
-      <sheetName val="19.24"/>
-      <sheetName val="19.25"/>
-      <sheetName val="19.26"/>
-      <sheetName val="19.27"/>
-      <sheetName val="19.28"/>
-      <sheetName val="19.29"/>
-      <sheetName val="19.30"/>
-      <sheetName val="19.31"/>
-      <sheetName val="censo98"/>
-      <sheetName val="p390"/>
-      <sheetName val="p391"/>
-      <sheetName val="p395fao"/>
-      <sheetName val="p397"/>
-      <sheetName val="p399fao"/>
-      <sheetName val="p400"/>
-      <sheetName val="p402"/>
-      <sheetName val="p403"/>
-      <sheetName val="p404.2"/>
-      <sheetName val="p405fao"/>
-      <sheetName val="p407"/>
-      <sheetName val="p408"/>
-      <sheetName val="p409"/>
-      <sheetName val="p410fao"/>
-      <sheetName val="p411fao"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="19.1-2"/>
@@ -1715,7 +1645,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.1"/>
@@ -1872,7 +1802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1914,7 +1844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1946,9 +1876,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1980,6 +1911,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2155,1708 +2087,1708 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Hoja158">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja158" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39" style="31" customWidth="1"/>
-    <col min="2" max="7" width="24.28515625" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="39" style="23" customWidth="1"/>
+    <col min="2" max="7" width="24.33203125" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="20">
         <v>121</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="20">
         <v>1397</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="21">
         <v>160</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="21">
         <v>20875</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="22">
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="25">
         <v>4</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="25">
         <v>357</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="26">
         <v>175</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="26">
         <v>14816</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="25">
         <v>2</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="27">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="25">
         <v>4</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="25">
         <v>401</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="25">
         <v>221</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="25">
         <v>21929</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="25">
         <v>3</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="27">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="28">
         <v>16</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="28">
         <v>1254</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="26">
         <v>376</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <v>29758</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="28">
         <v>8</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="29">
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="31">
         <v>145</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="31">
         <v>3409</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="32">
         <v>932</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="32">
         <v>87378</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="31">
         <v>20</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="33">
         <v>1723</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="38" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="42">
+      <c r="B15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="34">
         <v>96</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="34">
         <v>2360</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="38" t="s">
+      <c r="F15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="40">
+      <c r="B17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="32">
         <v>16</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="32">
         <v>324</v>
       </c>
-      <c r="F17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="32" t="s">
+      <c r="F17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="28">
         <v>1</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="28">
         <v>50</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="26">
         <v>54</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="26">
         <v>1510</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
+      <c r="F19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="28">
         <v>286</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="26">
         <v>66</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="26">
         <v>1434</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="28">
         <v>4</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="29">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="34">
+      <c r="B21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="26">
         <v>164</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="26">
         <v>4047</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="38" t="s">
+      <c r="F21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="31">
         <v>6</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="31">
         <v>336</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="32">
         <v>284</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="32">
         <v>6991</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="31">
         <v>4</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="33">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="38" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="42">
+      <c r="B24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="34">
         <v>2056</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="34">
         <v>163305</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="38" t="s">
+      <c r="F24" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="42">
+      <c r="B26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="34">
         <v>170</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="34">
         <v>12986</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="32" t="s">
+      <c r="F26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="B28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="25">
         <v>42</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="25">
         <v>3048</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="25">
         <v>9</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="27">
         <v>653</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="33">
+      <c r="B29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="25">
         <v>6</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="25">
         <v>390</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="32" t="s">
+      <c r="F29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="B30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="26">
         <v>641</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="37">
         <v>47452</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="40">
+      <c r="B31" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="32">
         <v>48</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="32">
         <v>3438</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="32">
         <v>650</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="35">
         <v>48105</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="38">
         <v>30</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="38">
         <v>1667</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="38">
         <v>270</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="38">
         <v>15003</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="38">
         <v>40</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="39">
         <v>2223</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="25">
         <v>29</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="25">
         <v>1049</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="38">
         <v>240</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="38">
         <v>8686</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="32" t="s">
+      <c r="F34" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="46">
+      <c r="B35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="38">
         <v>163</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="38">
         <v>5651</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="38">
         <v>38</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="39">
         <v>1413</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="38">
         <v>8</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="38">
         <v>560</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="38">
         <v>331</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="38">
         <v>12530</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="38">
         <v>37</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="39">
         <v>1295</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="32">
         <v>67</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="32">
         <v>3276</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="32">
         <v>1004</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="32">
         <v>41870</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="32">
         <v>115</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="35">
         <v>4931</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="34">
         <v>43</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="34">
         <v>1603</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="34">
         <v>191</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="34">
         <v>7162</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="34">
         <v>51</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="36">
         <v>1924</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="32" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="34">
+      <c r="B41" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="26">
         <v>16</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="26">
         <v>1040</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="32" t="s">
+      <c r="F41" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="34">
+      <c r="B42" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="26">
         <v>3</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="26">
         <v>150</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="32" t="s">
+      <c r="F42" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="34">
+      <c r="B43" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="26">
         <v>25</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="26">
         <v>1250</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="32" t="s">
+      <c r="F43" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="34">
+      <c r="B44" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="26">
         <v>10</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="26">
         <v>450</v>
       </c>
-      <c r="F44" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="32" t="s">
+      <c r="F44" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="34">
+      <c r="B45" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="26">
         <v>32</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="26">
         <v>1006</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="28">
         <v>3</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="29">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="34">
+      <c r="B46" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="26">
         <v>40</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="26">
         <v>1600</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="32" t="s">
+      <c r="F46" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="32" t="s">
+      <c r="B47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="34">
+      <c r="B48" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="26">
         <v>11</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="26">
         <v>561</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="32" t="s">
+      <c r="F48" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="34">
+      <c r="B49" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="26">
         <v>9</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="26">
         <v>522</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="38" t="s">
+      <c r="F49" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="40">
+      <c r="B50" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="32">
         <v>146</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="32">
         <v>6579</v>
       </c>
-      <c r="F50" s="40">
+      <c r="F50" s="32">
         <v>3</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="35">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="35"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="38" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="32">
         <v>1</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="32">
         <v>93</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="32">
         <v>50</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="32">
         <v>4625</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="31">
         <v>5</v>
       </c>
-      <c r="G52" s="41">
+      <c r="G52" s="33">
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="35"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="32" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="34">
+      <c r="B54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="26">
         <v>263</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="26">
         <v>24955</v>
       </c>
-      <c r="F54" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="32" t="s">
+      <c r="F54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="34">
+      <c r="B55" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="26">
         <v>285</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="26">
         <v>22350</v>
       </c>
-      <c r="F55" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="32" t="s">
+      <c r="F55" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="34">
+      <c r="B56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="26">
         <v>9</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="26">
         <v>405</v>
       </c>
-      <c r="F56" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="32" t="s">
+      <c r="F56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="34">
+      <c r="B57" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="26">
         <v>5</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="26">
         <v>85</v>
       </c>
-      <c r="F57" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="32" t="s">
+      <c r="F57" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="34">
+      <c r="B58" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="26">
         <v>566</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="26">
         <v>44190</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="38" t="s">
+      <c r="F58" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="40">
+      <c r="B59" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="32">
         <v>1128</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="32">
         <v>91985</v>
       </c>
-      <c r="F59" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="35"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="32" t="s">
+      <c r="F59" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="26">
         <v>141</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="26">
         <v>11280</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D61" s="26">
         <v>130</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="26">
         <v>4550</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="26">
         <v>267</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="37">
         <v>34710</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="32" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="34">
+      <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="26">
         <v>1882</v>
       </c>
-      <c r="D62" s="34">
+      <c r="D62" s="26">
         <v>425</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="26">
         <v>15289</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="26">
         <v>70</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="37">
         <v>2044</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="32" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="26">
         <v>10</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="26">
         <v>590</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="26">
         <v>47</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="26">
         <v>2681</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="26">
         <v>93</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="37">
         <v>3767</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="38" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="32">
         <v>211</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="32">
         <v>13752</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="32">
         <v>602</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="32">
         <v>22520</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="32">
         <v>430</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="35">
         <v>40521</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="35"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="38" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="34">
         <v>921</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="34">
         <v>115052</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="34">
         <v>574</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="34">
         <v>33650</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="34">
         <v>902</v>
       </c>
-      <c r="G66" s="44">
+      <c r="G66" s="36">
         <v>41782</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="35"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="32" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="34">
+      <c r="B68" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="26">
         <v>19823</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="26">
         <v>1727297</v>
       </c>
-      <c r="F68" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="32" t="s">
+      <c r="F68" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="34">
+      <c r="B69" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="26">
         <v>2630</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="26">
         <v>226633</v>
       </c>
-      <c r="F69" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="38" t="s">
+      <c r="F69" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="40">
+      <c r="B70" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="32">
         <v>22453</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="32">
         <v>1953930</v>
       </c>
-      <c r="F70" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="35"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="32" t="s">
+      <c r="F70" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="26">
         <v>7000</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C72" s="26">
         <v>659787</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="26">
         <v>1200</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="26">
         <v>78781</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="26">
         <v>2145</v>
       </c>
-      <c r="G72" s="45">
+      <c r="G72" s="37">
         <v>246189</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="32" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="26">
         <v>370</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="26">
         <v>13323</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="26">
         <v>570</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="26">
         <v>34087</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="26">
         <v>185</v>
       </c>
-      <c r="G73" s="45">
+      <c r="G73" s="37">
         <v>6700</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="32" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="34">
+      <c r="B74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="26">
         <v>295</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="26">
         <v>10483</v>
       </c>
-      <c r="F74" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="32" t="s">
+      <c r="F74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="34">
+      <c r="B75" s="26">
         <v>1324</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="26">
         <v>134337</v>
       </c>
-      <c r="D75" s="34">
+      <c r="D75" s="26">
         <v>1919</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="26">
         <v>147275</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="26">
         <v>1019</v>
       </c>
-      <c r="G75" s="45">
+      <c r="G75" s="37">
         <v>107683</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="32" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B76" s="26">
         <v>15</v>
       </c>
-      <c r="C76" s="34">
+      <c r="C76" s="26">
         <v>525</v>
       </c>
-      <c r="D76" s="34">
+      <c r="D76" s="26">
         <v>152</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="26">
         <v>6416</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="26">
         <v>15</v>
       </c>
-      <c r="G76" s="45">
+      <c r="G76" s="37">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="32" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="34">
+      <c r="B77" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="26">
         <v>182</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="26">
         <v>7500</v>
       </c>
-      <c r="F77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="32" t="s">
+      <c r="F77" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="34">
+      <c r="B78" s="26">
         <v>372</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="26">
         <v>25015</v>
       </c>
-      <c r="D78" s="34">
+      <c r="D78" s="26">
         <v>345</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="26">
         <v>23184</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="26">
         <v>201</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="37">
         <v>12812</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="32" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B79" s="26">
         <v>45</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="26">
         <v>3823</v>
       </c>
-      <c r="D79" s="34">
+      <c r="D79" s="26">
         <v>6450</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="26">
         <v>500000</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="26">
         <v>30</v>
       </c>
-      <c r="G79" s="45">
+      <c r="G79" s="37">
         <v>2550</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="38" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="32">
         <v>9126</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="32">
         <v>836810</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="32">
         <v>11113</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="32">
         <v>807726</v>
       </c>
-      <c r="F80" s="40">
+      <c r="F80" s="32">
         <v>3595</v>
       </c>
-      <c r="G80" s="43">
+      <c r="G80" s="35">
         <v>376309</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="32"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="35"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="32" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="27"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="34">
+      <c r="B82" s="26">
         <v>319</v>
       </c>
-      <c r="C82" s="34">
+      <c r="C82" s="26">
         <v>35356</v>
       </c>
-      <c r="D82" s="34">
+      <c r="D82" s="26">
         <v>152</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="26">
         <v>14155</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="26">
         <v>189</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="37">
         <v>20811</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="32" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="34">
+      <c r="B83" s="26">
         <v>95</v>
       </c>
-      <c r="C83" s="34">
+      <c r="C83" s="26">
         <v>8199</v>
       </c>
-      <c r="D83" s="34">
+      <c r="D83" s="26">
         <v>193</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="26">
         <v>14496</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="26">
         <v>28</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="37">
         <v>2423</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="38" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="32">
         <v>414</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="32">
         <v>43555</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="32">
         <v>345</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="32">
         <v>28651</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="32">
         <v>217</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="35">
         <v>23234</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="32"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="35"/>
-    </row>
-    <row r="86" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A86" s="48" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="24"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="27"/>
+    </row>
+    <row r="86" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="49">
+      <c r="B86" s="41">
         <v>10934</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C86" s="41">
         <v>1017886</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="41">
         <v>41208</v>
       </c>
-      <c r="E86" s="49">
+      <c r="E86" s="41">
         <v>3275480</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="41">
         <v>5992</v>
       </c>
-      <c r="G86" s="50">
+      <c r="G86" s="42">
         <v>539334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.59055118110236227" bottom="0.98425196850393704" header="0" footer="0"/>
